--- a/spliced/falling/2023-03-25_17-55-24/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-55-24/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,200 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-2.071417987346649</v>
+        <v>-0.7120251655578613</v>
       </c>
       <c r="B2" t="n">
-        <v>0.361852638423443</v>
+        <v>1.784507364034653</v>
       </c>
       <c r="C2" t="n">
-        <v>3.242989569902419</v>
+        <v>2.399995267391204</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-3.716687679290772</v>
+        <v>-0.8870223164558411</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0018857717514038</v>
+        <v>1.693844005465508</v>
       </c>
       <c r="C3" t="n">
-        <v>4.452265739440918</v>
+        <v>2.417137637734413</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-5.890828639268875</v>
+        <v>-1.0569589138031</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2718941420316697</v>
+        <v>1.552494168281555</v>
       </c>
       <c r="C4" t="n">
-        <v>4.244596153497697</v>
+        <v>2.973462641239166</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-7.35106348991394</v>
+        <v>-1.252092391252517</v>
       </c>
       <c r="B5" t="n">
-        <v>2.290824487805367</v>
+        <v>1.304344907402993</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9694806933402997</v>
+        <v>3.757617935538292</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-12.02078425884247</v>
+        <v>-2.462630152702332</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3663914650678617</v>
+        <v>0.6072362959384919</v>
       </c>
       <c r="C6" t="n">
-        <v>3.381503492593767</v>
+        <v>3.575700670480729</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-19.42419934272767</v>
+        <v>-2.071417987346649</v>
       </c>
       <c r="B7" t="n">
-        <v>8.062076985836041</v>
+        <v>0.361852638423443</v>
       </c>
       <c r="C7" t="n">
-        <v>6.704323172569278</v>
+        <v>3.242989569902419</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1.815191864967314</v>
+        <v>-3.716687679290772</v>
       </c>
       <c r="B8" t="n">
-        <v>4.267351135611525</v>
+        <v>0.0018857717514038</v>
       </c>
       <c r="C8" t="n">
-        <v>2.374830707907669</v>
+        <v>4.452265739440918</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.242185950279228</v>
+        <v>-5.890828639268875</v>
       </c>
       <c r="B9" t="n">
-        <v>1.317612782120705</v>
+        <v>0.2718941420316697</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6843594610691084</v>
+        <v>4.244596153497697</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.3276352286338837</v>
+        <v>-7.35106348991394</v>
       </c>
       <c r="B10" t="n">
-        <v>2.805960930883888</v>
+        <v>2.290824487805367</v>
       </c>
       <c r="C10" t="n">
-        <v>2.484445497393612</v>
+        <v>0.9694806933402997</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.4897050857543918</v>
+        <v>-12.02078425884247</v>
       </c>
       <c r="B11" t="n">
-        <v>1.077956080436697</v>
+        <v>0.3663914650678617</v>
       </c>
       <c r="C11" t="n">
-        <v>1.630782932043069</v>
+        <v>3.381503492593767</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.7483568191528327</v>
+        <v>-19.42419934272767</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1515689864754661</v>
+        <v>8.062076985836041</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4959011934697636</v>
+        <v>6.704323172569278</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.010472297668458</v>
+        <v>-1.815191864967314</v>
       </c>
       <c r="B13" t="n">
-        <v>2.143007203936576</v>
+        <v>4.267351135611525</v>
       </c>
       <c r="C13" t="n">
-        <v>1.17438416928053</v>
+        <v>2.374830707907669</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.2876673340797431</v>
+        <v>3.242185950279228</v>
       </c>
       <c r="B14" t="n">
-        <v>2.055301316082478</v>
+        <v>1.317612782120705</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5345815420150758</v>
+        <v>0.6843594610691084</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.02689480781555212</v>
+        <v>-0.3276352286338837</v>
       </c>
       <c r="B15" t="n">
-        <v>1.347976356744766</v>
+        <v>2.805960930883888</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6012542694807046</v>
+        <v>2.484445497393612</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.3917713761329649</v>
+        <v>-0.4897050857543918</v>
       </c>
       <c r="B16" t="n">
-        <v>1.835358053445816</v>
+        <v>1.077956080436697</v>
       </c>
       <c r="C16" t="n">
-        <v>1.164814613759517</v>
+        <v>1.630782932043069</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.5543608665466312</v>
+        <v>0.7483568191528327</v>
       </c>
       <c r="B17" t="n">
-        <v>2.1431974619627</v>
+        <v>-0.1515689864754661</v>
       </c>
       <c r="C17" t="n">
-        <v>1.211873441934586</v>
+        <v>0.4959011934697636</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.09726172685623177</v>
+        <v>1.010472297668458</v>
       </c>
       <c r="B18" t="n">
-        <v>1.577953547239304</v>
+        <v>2.143007203936576</v>
       </c>
       <c r="C18" t="n">
-        <v>1.194159328937531</v>
+        <v>1.17438416928053</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.3007450103759765</v>
+        <v>0.2876673340797431</v>
       </c>
       <c r="B19" t="n">
-        <v>1.845839619636536</v>
+        <v>2.055301316082478</v>
       </c>
       <c r="C19" t="n">
-        <v>1.076044678688049</v>
+        <v>0.5345815420150758</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>-0.02689480781555212</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.347976356744766</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6012542694807046</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.3917713761329649</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.835358053445816</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.164814613759517</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_17-55-24/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-55-24/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,221 +452,331 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.7120251655578613</v>
+        <v>-0.3973007202148437</v>
       </c>
       <c r="B2" t="n">
-        <v>1.784507364034653</v>
+        <v>1.798293828964233</v>
       </c>
       <c r="C2" t="n">
-        <v>2.399995267391204</v>
+        <v>1.168385148048401</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.8870223164558411</v>
+        <v>-0.8141142129898071</v>
       </c>
       <c r="B3" t="n">
-        <v>1.693844005465508</v>
+        <v>1.826734185218811</v>
       </c>
       <c r="C3" t="n">
-        <v>2.417137637734413</v>
+        <v>1.343665383756161</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.0569589138031</v>
+        <v>-0.9248467683792115</v>
       </c>
       <c r="B4" t="n">
-        <v>1.552494168281555</v>
+        <v>1.964664489030838</v>
       </c>
       <c r="C4" t="n">
-        <v>2.973462641239166</v>
+        <v>1.209049716591835</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.252092391252517</v>
+        <v>-0.7549184560775757</v>
       </c>
       <c r="B5" t="n">
-        <v>1.304344907402993</v>
+        <v>1.929333925247193</v>
       </c>
       <c r="C5" t="n">
-        <v>3.757617935538292</v>
+        <v>1.357575602829456</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-2.462630152702332</v>
+        <v>-0.4957029819488525</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6072362959384919</v>
+        <v>1.878820419311524</v>
       </c>
       <c r="C6" t="n">
-        <v>3.575700670480729</v>
+        <v>1.164325326681137</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-2.071417987346649</v>
+        <v>-0.8541634678840635</v>
       </c>
       <c r="B7" t="n">
-        <v>0.361852638423443</v>
+        <v>1.869282335042953</v>
       </c>
       <c r="C7" t="n">
-        <v>3.242989569902419</v>
+        <v>1.307794235646725</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-3.716687679290772</v>
+        <v>-0.8955824375152587</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0018857717514038</v>
+        <v>1.77057421207428</v>
       </c>
       <c r="C8" t="n">
-        <v>4.452265739440918</v>
+        <v>1.258034527301789</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-5.890828639268875</v>
+        <v>-0.5728458166122438</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2718941420316697</v>
+        <v>1.762963086366654</v>
       </c>
       <c r="C9" t="n">
-        <v>4.244596153497697</v>
+        <v>1.322432711720467</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-7.35106348991394</v>
+        <v>-0.5884580612182617</v>
       </c>
       <c r="B10" t="n">
-        <v>2.290824487805367</v>
+        <v>1.777032017707825</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9694806933402997</v>
+        <v>1.320214748382568</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-12.02078425884247</v>
+        <v>-0.7303044199943542</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3663914650678617</v>
+        <v>1.775961980223656</v>
       </c>
       <c r="C11" t="n">
-        <v>3.381503492593767</v>
+        <v>1.753339484333992</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-19.42419934272767</v>
+        <v>-0.7120251655578613</v>
       </c>
       <c r="B12" t="n">
-        <v>8.062076985836041</v>
+        <v>1.784507364034653</v>
       </c>
       <c r="C12" t="n">
-        <v>6.704323172569278</v>
+        <v>2.399995267391204</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-1.815191864967314</v>
+        <v>-0.8870223164558411</v>
       </c>
       <c r="B13" t="n">
-        <v>4.267351135611525</v>
+        <v>1.693844005465508</v>
       </c>
       <c r="C13" t="n">
-        <v>2.374830707907669</v>
+        <v>2.417137637734413</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3.242185950279228</v>
+        <v>-1.0569589138031</v>
       </c>
       <c r="B14" t="n">
-        <v>1.317612782120705</v>
+        <v>1.552494168281555</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6843594610691084</v>
+        <v>2.973462641239166</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.3276352286338837</v>
+        <v>-1.252092391252517</v>
       </c>
       <c r="B15" t="n">
-        <v>2.805960930883888</v>
+        <v>1.304344907402993</v>
       </c>
       <c r="C15" t="n">
-        <v>2.484445497393612</v>
+        <v>3.757617935538292</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.4897050857543918</v>
+        <v>-2.462630152702332</v>
       </c>
       <c r="B16" t="n">
-        <v>1.077956080436697</v>
+        <v>0.6072362959384919</v>
       </c>
       <c r="C16" t="n">
-        <v>1.630782932043069</v>
+        <v>3.575700670480729</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.7483568191528327</v>
+        <v>-2.071417987346649</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.1515689864754661</v>
+        <v>0.361852638423443</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4959011934697636</v>
+        <v>3.242989569902419</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.010472297668458</v>
+        <v>-3.716687679290772</v>
       </c>
       <c r="B18" t="n">
-        <v>2.143007203936576</v>
+        <v>0.0018857717514038</v>
       </c>
       <c r="C18" t="n">
-        <v>1.17438416928053</v>
+        <v>4.452265739440918</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.2876673340797431</v>
+        <v>-5.890828639268875</v>
       </c>
       <c r="B19" t="n">
-        <v>2.055301316082478</v>
+        <v>0.2718941420316697</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5345815420150758</v>
+        <v>4.244596153497697</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.02689480781555212</v>
+        <v>-7.35106348991394</v>
       </c>
       <c r="B20" t="n">
-        <v>1.347976356744766</v>
+        <v>2.290824487805367</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6012542694807046</v>
+        <v>0.9694806933402997</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-12.02078425884247</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.3663914650678617</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.381503492593767</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-19.42419934272767</v>
+      </c>
+      <c r="B22" t="n">
+        <v>8.062076985836041</v>
+      </c>
+      <c r="C22" t="n">
+        <v>6.704323172569278</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-1.815191864967314</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4.267351135611525</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.374830707907669</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3.242185950279228</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.317612782120705</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.6843594610691084</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.3276352286338837</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2.805960930883888</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.484445497393612</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.4897050857543918</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.077956080436697</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.630782932043069</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.7483568191528327</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.1515689864754661</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.4959011934697636</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1.010472297668458</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2.143007203936576</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.17438416928053</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.2876673340797431</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2.055301316082478</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.5345815420150758</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.02689480781555212</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1.347976356744766</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.6012542694807046</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
         <v>0.3917713761329649</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B31" t="n">
         <v>1.835358053445816</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C31" t="n">
         <v>1.164814613759517</v>
       </c>
     </row>
